--- a/predict/case3.xlsx
+++ b/predict/case3.xlsx
@@ -355,1245 +355,1245 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.0882378482935823</v>
+        <v>0.03</v>
       </c>
       <c r="B1" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1793465077917138</v>
+        <v>0.15</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2355803152801138</v>
+        <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3241190173240658</v>
+        <v>0.19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5849819189458537</v>
+        <v>0.42</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4859764544348946</v>
+        <v>0.23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4053842481796276</v>
+        <v>-0.37</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1454130408068148</v>
+        <v>-0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4101392321167231</v>
+        <v>-0.01</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06815545646186955</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.08691539955016117</v>
+        <v>-0.17</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1062638116191761</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8099012294349882</v>
+        <v>-0.4</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3217156838438763</v>
+        <v>-0.13</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2610017161386528</v>
+        <v>0.23</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2324693417351438</v>
+        <v>0.23</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4436313134256621</v>
+        <v>-0.36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0743312044719881</v>
+        <v>-0.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.09155601175065256</v>
+        <v>-0.13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0448179926384183</v>
+        <v>0.13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5692307692307694</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5147217427047631</v>
+        <v>-0.38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1503316912751197</v>
+        <v>-0.14</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5191205059065459</v>
+        <v>-0.28</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6470588235294118</v>
+        <v>-0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2582038530310799</v>
+        <v>-0.09</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.504887555888862</v>
+        <v>-0.12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9117647058823529</v>
+        <v>-0.91</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2148367048952368</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.08311108893839494</v>
+        <v>-0.03</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01583042561807752</v>
+        <v>0.06</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.5156614094682811</v>
+        <v>-0.34</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1930721627701319</v>
+        <v>-0.09</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.07126530305574788</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05444194929555073</v>
+        <v>0.02</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04485415060406525</v>
+        <v>0.05</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07628227551248351</v>
+        <v>-0.08</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01425912976980656</v>
+        <v>-0.17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1540083864363209</v>
+        <v>0.11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2033138245967584</v>
+        <v>-0.23</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04286848739998967</v>
+        <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3111196131187642</v>
+        <v>-0.43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1704905246595909</v>
+        <v>-0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1519358117914712</v>
+        <v>-0.23</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03598707963627439</v>
+        <v>-0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.02159772046847755</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1751131842842538</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.08619591924487233</v>
+        <v>-0.16</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1251352784116518</v>
+        <v>-0.06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.08264237506868008</v>
+        <v>0.14</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3235294117647061</v>
+        <v>-0.32</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09884584076153452</v>
+        <v>0.26</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.2122121893703585</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1960767863759974</v>
+        <v>0.05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4822444578141384</v>
+        <v>0.16</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4831146876480977</v>
+        <v>0.22</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.2767717053979925</v>
+        <v>0.13</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09079590285552236</v>
+        <v>0.15</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.205566492784424</v>
+        <v>-0.32</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1046732951494564</v>
+        <v>-0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1403766721209384</v>
+        <v>0.19</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1747864451073232</v>
+        <v>0.14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.3165816805199898</v>
+        <v>-0.34</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08176799081594716</v>
+        <v>-0.1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2579995211573803</v>
+        <v>0.16</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1440054272698999</v>
+        <v>0.26</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2627167445801694</v>
+        <v>0.24</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3545509562302525</v>
+        <v>0.2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.2842937138895144</v>
+        <v>-0.26</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03438316651759215</v>
+        <v>-0.06</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.2751668082876629</v>
+        <v>-0.32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01978145757436118</v>
+        <v>-0.11</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.3200714523755507</v>
+        <v>-0.19</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07721250688351283</v>
+        <v>-0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.6084336994969169</v>
+        <v>-0.3</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7941176470588236</v>
+        <v>-0.79</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.108879894938354</v>
+        <v>-0.08</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.33827740198363</v>
+        <v>-0.34</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04007242641305148</v>
+        <v>-0.11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1065532980536031</v>
+        <v>0.12</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2919434459097273</v>
+        <v>0.25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.2627077878248726</v>
+        <v>-0.42</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1585754912655903</v>
+        <v>-0.14</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1702028323577861</v>
+        <v>0.08</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2986841197961643</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.4963049116817472</v>
+        <v>-0.23</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2935658924835418</v>
+        <v>-0.15</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.298135185130345</v>
+        <v>-0.32</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1159770928796315</v>
+        <v>-0.08</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07674398318301998</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01199142920091895</v>
+        <v>0.11</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1352237404447242</v>
+        <v>0.03</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1763739535036959</v>
+        <v>0.23</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.3241408881312874</v>
+        <v>-0.25</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02970159529277844</v>
+        <v>0.14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.3030414137550109</v>
+        <v>-0.33</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006743947660254941</v>
+        <v>-0.06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.3354567061085979</v>
+        <v>-0.38</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01918707265592395</v>
+        <v>-0.13</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3597708528512308</v>
+        <v>0.21</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.09155455884215108</v>
+        <v>-0.05</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.2268097769422663</v>
+        <v>-0.24</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1033664084869491</v>
+        <v>0.04</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4730003039864156</v>
+        <v>0.38</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3279703270518657</v>
+        <v>0.29</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4022399136789724</v>
+        <v>0.28</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3860994684197193</v>
+        <v>0.27</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05184008427156436</v>
+        <v>-0.08</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1494633558084745</v>
+        <v>0.09</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.1323761281007733</v>
+        <v>-0.06</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09184164414092827</v>
+        <v>0.19</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1030166465756287</v>
+        <v>-0.02</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C54" t="n">
-        <v>0.007582040446312784</v>
+        <v>0.05</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.08926225445072147</v>
+        <v>0.35</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1313095429584296</v>
+        <v>0.17</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.6923076923076923</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1949796579507695</v>
+        <v>0.28</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09627678685689439</v>
+        <v>0.19</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.4048568651507355</v>
+        <v>-0.13</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.08582804537321514</v>
+        <v>0.06</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.08417179561942065</v>
+        <v>-0.02</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1298421872587672</v>
+        <v>0.08</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.1862335991538887</v>
+        <v>-0.27</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1624042362408846</v>
+        <v>-0.04</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1233708580647494</v>
+        <v>0.17</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.004874721315196444</v>
+        <v>0.24</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.3308705219114393</v>
+        <v>-0.3</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09217820238274094</v>
+        <v>-0.12</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2637629689708164</v>
+        <v>0.25</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.04074698219781275</v>
+        <v>0.22</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.2671970751918947</v>
+        <v>-0.38</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1211000510694186</v>
+        <v>-0.13</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.342768599625762</v>
+        <v>0.28</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4142357437811382</v>
+        <v>0.26</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.4032137018890561</v>
+        <v>-0.11</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1544984053244848</v>
+        <v>0.03</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1969917585246731</v>
+        <v>0.21</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C66" t="n">
-        <v>0.007067110140653705</v>
+        <v>0.2</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.4913238984829443</v>
+        <v>-0.23</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1605387537983093</v>
+        <v>-0.09</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5885782292031331</v>
+        <v>0.48</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7941176470588232</v>
+        <v>0.79</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3890122717775815</v>
+        <v>0.29</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.08124062283722813</v>
+        <v>-0.36</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1587851272025768</v>
+        <v>-0.03</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3515155792403012</v>
+        <v>0.32</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03297862136302194</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5911613200588467</v>
+        <v>0.36</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7647058823529409</v>
+        <v>0.76</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1021185457857387</v>
+        <v>0.21</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.2560382629746519</v>
+        <v>-0.39</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1434033381371579</v>
+        <v>-0.18</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.2605994402900292</v>
+        <v>-0.01</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3235294117647061</v>
+        <v>-0.32</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.001539418516816431</v>
+        <v>0.08</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.273759327105802</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1544481102878242</v>
+        <v>0.19</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.4614763426899912</v>
+        <v>-0.37</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0692477782301561</v>
+        <v>-0.11</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.3105212078784553</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04450323925499739</v>
+        <v>-0.04</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.07722031454113684</v>
+        <v>0.13</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08250167207238995</v>
+        <v>0.12</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.3816948524816243</v>
+        <v>0.03</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1197283373569422</v>
+        <v>0.08</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.4069698441675412</v>
+        <v>-0.49</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1696474704475323</v>
+        <v>-0.13</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3256853739988445</v>
+        <v>0.17</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05475830120631692</v>
+        <v>0.13</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.7123949428903095</v>
+        <v>-0.39</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7058823529411764</v>
+        <v>-0.71</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.2369607828718112</v>
+        <v>-0.12</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.2362720043724665</v>
+        <v>0.11</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3072336546347541</v>
+        <v>0.17</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.1774822828320079</v>
+        <v>-0.15</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03631447117327064</v>
+        <v>-0.04</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2024031140126593</v>
+        <v>-0.22</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C84" t="n">
-        <v>0.274895047279856</v>
+        <v>0.04</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.1181249759565598</v>
+        <v>-0.06</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03072952144885172</v>
+        <v>-0.16</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.02881736743591654</v>
+        <v>0.1</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3032781337627069</v>
+        <v>0.14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.2554107567005345</v>
+        <v>0.11</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1140493295400974</v>
+        <v>0.18</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.1412929439051744</v>
+        <v>-0.3</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1245144619650885</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.3453733706768302</v>
+        <v>0.23</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2646097720416064</v>
+        <v>0.11</v>
       </c>
       <c r="D89" t="n">
         <v>-0.2</v>
@@ -1601,839 +1601,839 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.1148699907749701</v>
+        <v>-0.11</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03430794560697643</v>
+        <v>-0.04</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.09699315333527628</v>
+        <v>-0.19</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3475882352941178</v>
+        <v>-0.35</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.04554511901391172</v>
+        <v>0.03</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2979076923076924</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.2369132581243766</v>
+        <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1906194221897484</v>
+        <v>0.23</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7846153846153849</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4765579605202818</v>
+        <v>0.45</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2278166531232029</v>
+        <v>0.31</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.2232931897345728</v>
+        <v>-0.17</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.04476817154590001</v>
+        <v>-0.02</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3533332827944095</v>
+        <v>0.25</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2049717217164582</v>
+        <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.08547291982919</v>
+        <v>-0.39</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1600139765257507</v>
+        <v>-0.12</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.5412017282358851</v>
+        <v>0.44</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C97" t="n">
-        <v>0.399064199277746</v>
+        <v>0.3</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4452736254108151</v>
+        <v>0.38</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2006662626427099</v>
+        <v>0.18</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1610339720309178</v>
+        <v>0.28</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2777324174867926</v>
+        <v>0.25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.02331883891699596</v>
+        <v>-0.25</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2409899435033621</v>
+        <v>-0.1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.3974165502407184</v>
+        <v>-0.41</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.7058823529411764</v>
+        <v>-0.71</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.02997478776361667</v>
+        <v>-0.1</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4146675023102554</v>
+        <v>0.23</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2874476052349242</v>
+        <v>0.19</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.1542098240143942</v>
+        <v>-0.22</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1764705882352939</v>
+        <v>0.18</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.03286297167684487</v>
+        <v>-0.04</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.1597523012114514</v>
+        <v>-0.44</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.05121855757620913</v>
+        <v>-0.17</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.09363733253637455</v>
+        <v>-0.34</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07233088362593826</v>
+        <v>-0.12</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.2113855597529478</v>
+        <v>-0.09</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1762161445039178</v>
+        <v>-0.06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.4097424650247897</v>
+        <v>-0.38</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.8529411764705882</v>
+        <v>-0.85</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.07916466654335202</v>
+        <v>-0.17</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04112178632568594</v>
+        <v>0.14</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1810809325556276</v>
+        <v>0.23</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.3218827451861764</v>
+        <v>0.32</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2260064084758616</v>
+        <v>0.24</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.3144116095054502</v>
+        <v>-0.33</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.05960734879572221</v>
+        <v>-0.12</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.1059739425503884</v>
+        <v>0.03</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.2421877300431804</v>
+        <v>0.09</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2557700819200549</v>
+        <v>0.41</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1411281344290961</v>
+        <v>0.3</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5415836431291331</v>
+        <v>-0.39</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2279653661171105</v>
+        <v>-0.14</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.2269179691493156</v>
+        <v>-0.3</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.0435609789565236</v>
+        <v>-0.14</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2482031811861881</v>
+        <v>0.11</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2888216610175083</v>
+        <v>0.08</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.1794927945423001</v>
+        <v>-0.3</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.08310827273909588</v>
+        <v>-0.1</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.183918092792844</v>
+        <v>0.09</v>
       </c>
       <c r="B117" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216279034458506</v>
+        <v>-0.09</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05642262400193063</v>
+        <v>0.01</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02553437235148032</v>
+        <v>0.11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5692307692307694</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.3101628425046349</v>
+        <v>-0.4</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.180041677601554</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2859964849645974</v>
+        <v>0.38</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1948525957381624</v>
+        <v>0.26</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.2956051298894432</v>
+        <v>-0.52</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.676470588235294</v>
+        <v>-0.68</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04138274721021113</v>
+        <v>-0.18</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.476923076923077</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.07978401601005372</v>
+        <v>-0.28</v>
       </c>
       <c r="B122" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.02283431890212689</v>
+        <v>-0.11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.0732996870098325</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02375970314803817</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.2965463573938986</v>
+        <v>-0.37</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.001415164731710154</v>
+        <v>-0.14</v>
       </c>
       <c r="D124" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.2108166493533189</v>
+        <v>-0.43</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.05347058823529416</v>
+        <v>-0.05</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1526838935244333</v>
+        <v>-0.21</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2699384615384615</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.480628333891353</v>
+        <v>-0.02</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1645907678418718</v>
+        <v>-0.18</v>
       </c>
       <c r="D126" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.3473445982405162</v>
+        <v>-0.18</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.05219747876885655</v>
+        <v>-0.05</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4043186497273404</v>
+        <v>0.4</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2375009442239642</v>
+        <v>0.24</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4146536865448099</v>
+        <v>0.24</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8529411764705881</v>
+        <v>0.85</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3351660765150375</v>
+        <v>0.16</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2074567401346422</v>
+        <v>0.12</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01786532550166748</v>
+        <v>0.23</v>
       </c>
       <c r="D130" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.07596224986243358</v>
+        <v>-0.01</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2261747227374014</v>
+        <v>0.14</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.509315128320006</v>
+        <v>-0.3</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1942489700907468</v>
+        <v>-0.06</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.1621548581902363</v>
+        <v>-0.1</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C133" t="n">
-        <v>0.08782252641741956</v>
+        <v>0.14</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.5117669333603595</v>
+        <v>0.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3109527665912891</v>
+        <v>0.28</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.5692307692307692</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.2891663509264307</v>
+        <v>-0.25</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.06117434099803581</v>
+        <v>-0.01</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3263586802760018</v>
+        <v>0.19</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3676893229987717</v>
+        <v>0.21</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.4407478461368352</v>
+        <v>-0.41</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3030630499691429</v>
+        <v>-0.16</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.2362779497569018</v>
+        <v>-0.4</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.03177010778445982</v>
+        <v>-0.12</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4323606912477623</v>
+        <v>0.42</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2010853950433896</v>
+        <v>0.29</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.6412114410295809</v>
+        <v>-0.52</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1808859412916734</v>
+        <v>-0.19</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.2914752514265081</v>
+        <v>-0.09</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06425661941590072</v>
+        <v>0.12</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.1774603385813568</v>
+        <v>0.13</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1127295927804214</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.387048018633955</v>
+        <v>0.34</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2732589249255715</v>
+        <v>0.23</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9076923076923076</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.571575363110666</v>
+        <v>-0.39</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.3666317057536505</v>
+        <v>-0.11</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2295192590552483</v>
+        <v>0.25</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3823529411764703</v>
+        <v>0.38</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3214468085566336</v>
+        <v>0.29</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8153846153846156</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.6490345384994728</v>
+        <v>-0.24</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1841559165942672</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.1688907433754458</v>
+        <v>-0.18</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2139502726096585</v>
+        <v>-0.08</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.05184720496717085</v>
+        <v>-0.02</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.01614902090146891</v>
+        <v>-0.02</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2041475946789895</v>
+        <v>-0.08</v>
       </c>
       <c r="B149" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C149" t="n">
-        <v>0.259389035836684</v>
+        <v>-0.04</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2441,419 +2441,419 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.07189818770877912</v>
+        <v>-0.09</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1228919801182004</v>
+        <v>0.11</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.2967532180999529</v>
+        <v>-0.08</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1085736448414382</v>
+        <v>0.1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.2309009679906636</v>
+        <v>-0.39</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01472560417170549</v>
+        <v>-0.14</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.3031136946450238</v>
+        <v>-0.21</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.07084320785546389</v>
+        <v>0.01</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.4303995193035098</v>
+        <v>-0.31</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.07808664394564196</v>
+        <v>-0.03</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.3388027340413017</v>
+        <v>-0.27</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1347445994520231</v>
+        <v>-0.1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.7841701172324437</v>
+        <v>-0.42</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.210388350383432</v>
+        <v>-0.15</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7049260474794644</v>
+        <v>0.43</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7647058823529409</v>
+        <v>0.76</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4281657493143923</v>
+        <v>0.19</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.4269104373911058</v>
+        <v>-0.18</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.06542298698956678</v>
+        <v>-0.06</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.04244626739159871</v>
+        <v>-0.13</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.06596544225095918</v>
+        <v>0.01</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.3191938054537183</v>
+        <v>0.43</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.04210531346022555</v>
+        <v>0.28</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.4298919962146907</v>
+        <v>-0.19</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.676470588235294</v>
+        <v>-0.68</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.08178359244072858</v>
+        <v>-0.01</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.2914783813022089</v>
+        <v>-0.16</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.59</v>
       </c>
       <c r="C162" t="n">
-        <v>0.08144590476118602</v>
+        <v>-0.01</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1974638850313469</v>
+        <v>0.18</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1623450706823495</v>
+        <v>0.25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.0889947991019823</v>
+        <v>-0.03</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.03890646284850569</v>
+        <v>0.02</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2514990372744884</v>
+        <v>0.33</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1958209343740722</v>
+        <v>0.08</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.02795838044346324</v>
+        <v>-0.01</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C166" t="n">
-        <v>0.05416659486231674</v>
+        <v>0.1</v>
       </c>
       <c r="D166" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.07164430474465186</v>
+        <v>0.27</v>
       </c>
       <c r="B167" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0969521861825276</v>
+        <v>0.22</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2176629190376414</v>
+        <v>-0.27</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2252753004435424</v>
+        <v>-0.11</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.6262147357572444</v>
+        <v>-0.4</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.7352941176470589</v>
+        <v>-0.74</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.2475407263106599</v>
+        <v>-0.14</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3538461538461537</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1206520021480114</v>
+        <v>0.21</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2511405668944602</v>
+        <v>0.25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.3624532224362581</v>
+        <v>-0.39</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1014010989573779</v>
+        <v>-0.12</v>
       </c>
       <c r="D171" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.2360913512401818</v>
+        <v>-0.33</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.05389770295664625</v>
+        <v>-0.05</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.450873360080145</v>
+        <v>0.37</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2620398937494355</v>
+        <v>0.32</v>
       </c>
       <c r="D173" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.4357439959163648</v>
+        <v>-0.43</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.2749451349416456</v>
+        <v>-0.16</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.3538461538461537</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.1529360115573616</v>
+        <v>-0.12</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2811309686061603</v>
+        <v>0.13</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.1970943110805886</v>
+        <v>-0.18</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.04459808652807545</v>
+        <v>-0.01</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.08043362325199502</v>
+        <v>0.11</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2861050617336152</v>
+        <v>0.02</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.360227661715797</v>
+        <v>0.14</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2656137438461426</v>
+        <v>-0.02</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1907132013402482</v>
+        <v>0.11</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2167059254553512</v>
+        <v>0.15</v>
       </c>
       <c r="D179" t="n">
         <v>-0.2</v>
@@ -2861,632 +2861,632 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1528616424026482</v>
+        <v>0.26</v>
       </c>
       <c r="B180" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C180" t="n">
-        <v>0.07513646500103072</v>
+        <v>0.26</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.02553002783910677</v>
+        <v>-0.35</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1764705882352939</v>
+        <v>0.18</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.0520133761971801</v>
+        <v>-0.16</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.4831428497465636</v>
+        <v>-0.17</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1700837037025233</v>
+        <v>0.02</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.3562785099513678</v>
+        <v>-0.15</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1655354977726228</v>
+        <v>-0.02</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.05094900736268029</v>
+        <v>0.08</v>
       </c>
       <c r="B184" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.07269039603449251</v>
+        <v>0.17</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.7842567505051913</v>
+        <v>-0.44</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-0.82</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2411184563644144</v>
+        <v>-0.16</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.01248220257467744</v>
+        <v>-0.2</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2732407812422904</v>
+        <v>-0.04</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.07605524775341274</v>
+        <v>0.11</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C187" t="n">
-        <v>0.09430370490373058</v>
+        <v>0.18</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.3528446411999743</v>
+        <v>0.4</v>
       </c>
       <c r="B188" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1284833451569978</v>
+        <v>0.23</v>
       </c>
       <c r="D188" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.1673398822391671</v>
+        <v>-0.09</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1139428547820321</v>
+        <v>0.01</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.1775758025741291</v>
+        <v>-0.03</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.4705882352941178</v>
+        <v>-0.47</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2434218517288902</v>
+        <v>0.1</v>
       </c>
       <c r="D190" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.4656652495545081</v>
+        <v>-0.19</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C191" t="n">
-        <v>0.02984592020227745</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.3350834223897808</v>
+        <v>-0.04</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01477820844132133</v>
+        <v>-0</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.1039616576318724</v>
+        <v>0.11</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02941176470588203</v>
+        <v>0.03</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1375590735808144</v>
+        <v>0.18</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.3545807670895335</v>
+        <v>-0.15</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C194" t="n">
-        <v>0.05404366161576896</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.476923076923077</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.1815730156532852</v>
+        <v>0.03</v>
       </c>
       <c r="B195" t="n">
-        <v>0.529411764705882</v>
+        <v>0.53</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2624901722250504</v>
+        <v>0.15</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.07574624828463081</v>
+        <v>0.36</v>
       </c>
       <c r="B196" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01008627930663459</v>
+        <v>0.05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1465074930984259</v>
+        <v>-0.17</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.126112138226023</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.2962139839603334</v>
+        <v>-0.42</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1022264219311455</v>
+        <v>-0.03</v>
       </c>
       <c r="D198" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.391750759708085</v>
+        <v>0.34</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2625933104163001</v>
+        <v>0.14</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.7538461538461538</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.3558054102848162</v>
+        <v>0.42</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2429740312240197</v>
+        <v>0.13</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.1059803075300819</v>
+        <v>-0.23</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.03951486555938593</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.0149787160654605</v>
+        <v>-0.25</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.07776558955461915</v>
+        <v>0.06</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.4553785803851192</v>
+        <v>0.32</v>
       </c>
       <c r="B203" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1094845785212298</v>
+        <v>0.2</v>
       </c>
       <c r="D203" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.2550799142276413</v>
+        <v>-0.19</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C204" t="n">
-        <v>0.06916062766595538</v>
+        <v>-0.01</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.139087654057244</v>
+        <v>0.33</v>
       </c>
       <c r="B205" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1971697290874777</v>
+        <v>0.28</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.3365069109587929</v>
+        <v>0.16</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2601862906438411</v>
+        <v>0.09</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.6706924476402564</v>
+        <v>0.43</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.71</v>
       </c>
       <c r="C207" t="n">
-        <v>0.388912815435909</v>
+        <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.2650685345392761</v>
+        <v>-0.38</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1168721904721478</v>
+        <v>-0.05</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.4735684917900772</v>
+        <v>-0.34</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.1040252618536281</v>
+        <v>-0.09</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.4555652014858343</v>
+        <v>0.27</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7941176470588232</v>
+        <v>0.79</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2514974834973534</v>
+        <v>0.26</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.01657225910667384</v>
+        <v>-0.02</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1561851576702336</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.3306695492397865</v>
+        <v>0.1</v>
       </c>
       <c r="B212" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3364878187176506</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.3194996727466498</v>
+        <v>-0.05</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.1252846722423082</v>
+        <v>0.06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.3232710690545239</v>
+        <v>-0.35</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0487616135778955</v>
+        <v>-0.12</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.4870669393271677</v>
+        <v>0.42</v>
       </c>
       <c r="B215" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4252835130779365</v>
+        <v>0.23</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1177944869949244</v>
+        <v>0.23</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3319994625824632</v>
+        <v>0.23</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.00186259502586425</v>
+        <v>-0.34</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C217" t="n">
-        <v>0.005169644923512857</v>
+        <v>-0.06</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.7230769230769231</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.1553699983381626</v>
+        <v>-0.26</v>
       </c>
       <c r="B218" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.03896909239726958</v>
+        <v>0.01</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.05721356721645945</v>
+        <v>0.01</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.01402570202711167</v>
+        <v>0.04</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.00400206124993821</v>
+        <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C220" t="n">
-        <v>0.05130456677271817</v>
+        <v>0.02</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.3245612469636844</v>
+        <v>0.26</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C221" t="n">
-        <v>0.158851205975783</v>
+        <v>0.17</v>
       </c>
       <c r="D221" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.356282696607659</v>
+        <v>0.32</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3823529411764703</v>
+        <v>0.38</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.001305949452447157</v>
+        <v>0.2</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.2280000359175282</v>
+        <v>-0.46</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.1396250392921056</v>
+        <v>-0.2</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.453356259723911</v>
+        <v>-0.49</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-0.82</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.4486379820566308</v>
+        <v>-0.13</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
